--- a/ServiceApp/src/main/java/Resources/testdata.xlsx
+++ b/ServiceApp/src/main/java/Resources/testdata.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4837970df5b73392/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{97A64074-26BB-4EF0-B387-3506CB4671A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F99D50E6-8DAC-4CD0-9669-72EFEA19419E}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="6_{EEA9387F-EE67-4AE7-8840-8E142FEA96EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89656086-648D-47D7-821D-ADD1586FD290}"/>
   <bookViews>
-    <workbookView xWindow="5544" yWindow="324" windowWidth="13344" windowHeight="11916" activeTab="3" xr2:uid="{AEA39FEC-8525-4F93-95BB-9129F9A46E26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AEA39FEC-8525-4F93-95BB-9129F9A46E26}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="Client" sheetId="2" r:id="rId2"/>
     <sheet name="QuickSMS" sheetId="3" r:id="rId3"/>
     <sheet name="QuickEmail" sheetId="4" r:id="rId4"/>
+    <sheet name="Reparation" sheetId="5" r:id="rId5"/>
+    <sheet name="Inventory" sheetId="6" r:id="rId6"/>
+    <sheet name="Home" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>admin@admin.com</t>
   </si>
@@ -82,6 +85,108 @@
   </si>
   <si>
     <t>Welcome quick email</t>
+  </si>
+  <si>
+    <t>Subin</t>
+  </si>
+  <si>
+    <t>sumayya</t>
+  </si>
+  <si>
+    <t>dell</t>
+  </si>
+  <si>
+    <t>×\nLogged In Successfully</t>
+  </si>
+  <si>
+    <t>Showing 1 to 38 of 38 entries</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>previous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  		          Products successfully deleted		      </t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service/panel/welcome</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service/panel/login</t>
+  </si>
+  <si>
+    <t>frock</t>
+  </si>
+  <si>
+    <t>Logged Out Successfully</t>
+  </si>
+  <si>
+    <t>Revenue Chart</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service//panel/login</t>
+  </si>
+  <si>
+    <t>Client: Arathy</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service/panel/inventory</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service/panel/customers</t>
+  </si>
+  <si>
+    <t>https://qalegend.com/mobile_service/panel/reparation</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>gents</t>
+  </si>
+  <si>
+    <t>zehra</t>
+  </si>
+  <si>
+    <t>Order &amp; Reparations</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>hello message</t>
+  </si>
+  <si>
+    <t>Showing 1 to 10 of 859 entries</t>
+  </si>
+  <si>
+    <t>Showing 26 to 50 of 153 entries</t>
+  </si>
+  <si>
+    <t>Showing 1 to 25 of 153 entries</t>
+  </si>
+  <si>
+    <t>Showing 1 to 153 of 153 entries</t>
+  </si>
+  <si>
+    <t>Showing 1 to 1 of 1 entries (filtered from 153 total entries)</t>
+  </si>
+  <si>
+    <t>Showing 1 to 62 of 62 entries</t>
+  </si>
+  <si>
+    <t>Showing 1 to 10 of 10 entries (filtered from 62 total entries)</t>
+  </si>
+  <si>
+    <t>Showing 1 to 2 of 2 entries (filtered from 866 total entries)</t>
   </si>
 </sst>
 </file>
@@ -159,15 +264,107 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person12.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person13.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person14.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person15.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person16.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person17.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person18.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person19.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person20.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person21.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person22.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person23.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person24.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person25.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person26.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person27.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -460,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,17 +665,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA7F3ED-5977-4C55-AAF0-BF30548599D7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="3" max="4" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -503,29 +700,54 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{ECE08FF1-80CD-4039-92B0-5231B732C8BE}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{A47A6212-4DBB-4CC4-A124-E7C145A159B9}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{F1E719A2-4D05-4D7C-844A-D26A92377AF1}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{25DDB9F3-2ADB-44AF-8DED-DCD186EC94E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C1E789-1E77-4D7D-858B-E34CF0D83A64}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="4" max="5" width="26.5546875" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" customWidth="1"/>
     <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="10" width="40.77734375" customWidth="1"/>
+    <col min="9" max="9" width="57.33203125" customWidth="1"/>
+    <col min="10" max="10" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -558,6 +780,30 @@
       </c>
       <c r="J1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +816,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E0CF7F-A043-4685-B684-FFEE563A0320}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="53.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>9876543210</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{19199BD8-7E56-4FF5-8F02-FC264C416582}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDDE27A-0FB4-4D52-8228-2A8CC1909BAE}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="5" width="53.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{40C53650-F3C0-43D8-B918-18565031A4AA}"/>
+    <hyperlink ref="D1" r:id="rId2" xr:uid="{F90DEA15-6E44-4428-B835-5286E24C69B4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE79B159-0153-481D-A8B2-18D69E9925D4}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -578,20 +910,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="4" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>9876543210</v>
+      <c r="A1" t="s">
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -599,40 +952,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDDE27A-0FB4-4D52-8228-2A8CC1909BAE}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA53DFFF-34C3-4419-B25C-FC6E61601947}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>12345</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A71B6C6-E8E1-460C-990C-A7497952BA95}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.21875" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{40C53650-F3C0-43D8-B918-18565031A4AA}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{2F6F2B63-0B53-4337-8504-D20DC3FE98FC}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{EA52E3D5-F7CE-4E84-86F2-8D594A6261C2}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{D14CDDE3-A6E7-49E0-A6C1-077697C4B011}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
